--- a/configs/datas/guide.xlsx
+++ b/configs/datas/guide.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11620"/>
+    <workbookView windowWidth="28800" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
   <si>
     <t>##var</t>
   </si>
@@ -60,6 +60,9 @@
     <t>desc</t>
   </si>
   <si>
+    <t>redirect</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -78,32 +81,16 @@
     <t>##</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>这是i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>d</t>
-    </r>
+    <t>id</t>
   </si>
   <si>
     <t>路径</t>
   </si>
   <si>
     <t>描述</t>
+  </si>
+  <si>
+    <t>中断重定向</t>
   </si>
   <si>
     <t>引导1</t>
@@ -1090,10 +1077,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z15"/>
+  <dimension ref="A1:Z14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1102,6 +1089,7 @@
     <col min="2" max="2" width="6.75" customWidth="1"/>
     <col min="3" max="3" width="12.3839285714286" customWidth="1"/>
     <col min="4" max="4" width="15.1785714285714" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="17" spans="1:26">
@@ -1118,7 +1106,9 @@
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1"/>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="G1"/>
       <c r="H1"/>
       <c r="I1"/>
@@ -1140,15 +1130,23 @@
       <c r="Y1"/>
       <c r="Z1"/>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:26">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2"/>
+    <row r="2" s="2" customFormat="1" spans="1:26">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2"/>
@@ -1172,19 +1170,19 @@
     </row>
     <row r="3" s="2" customFormat="1" spans="1:26">
       <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3"/>
+        <v>9</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3"/>
@@ -1206,19 +1204,23 @@
       <c r="Y3"/>
       <c r="Z3"/>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:26">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4"/>
+    <row r="4" s="1" customFormat="1" spans="1:26">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
@@ -1240,180 +1242,168 @@
       <c r="Y4"/>
       <c r="Z4"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="17" spans="1:26">
-      <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5"/>
+    <row r="5" spans="2:5">
+      <c r="B5">
+        <v>10000</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:6">
       <c r="B6">
+        <v>10001</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6">
         <v>10000</v>
       </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:6">
       <c r="B7">
-        <v>10001</v>
+        <v>10002</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="F7">
+        <v>10000</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:6">
       <c r="B8">
-        <v>10002</v>
+        <v>10003</v>
       </c>
       <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
         <v>16</v>
       </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
       <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9">
+        <v>10004</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
         <v>16</v>
       </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>10003</v>
+      </c>
     </row>
-    <row r="9" spans="2:5">
-      <c r="B9">
+    <row r="10" spans="2:6">
+      <c r="B10">
+        <v>10005</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10">
         <v>10003</v>
       </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="10" spans="2:5">
-      <c r="B10">
-        <v>10004</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
+    <row r="11" spans="2:6">
+      <c r="B11">
+        <v>10006</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11">
+        <v>10003</v>
       </c>
     </row>
-    <row r="11" spans="2:5">
-      <c r="B11">
-        <v>10005</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>19</v>
+    <row r="12" spans="2:6">
+      <c r="B12">
+        <v>10007</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12">
+        <v>10006</v>
       </c>
     </row>
-    <row r="12" spans="2:5">
-      <c r="B12">
+    <row r="13" spans="2:6">
+      <c r="B13">
+        <v>10008</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13">
         <v>10006</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13">
-        <v>10007</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="14" spans="2:5">
       <c r="B14">
-        <v>10008</v>
+        <v>10009</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15">
-        <v>10009</v>
-      </c>
-      <c r="C15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/configs/datas/guide.xlsx
+++ b/configs/datas/guide.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11640"/>
+    <workbookView windowWidth="28800" windowHeight="11620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t>##var</t>
   </si>
@@ -54,15 +54,15 @@
     </r>
   </si>
   <si>
-    <t>target_path</t>
-  </si>
-  <si>
     <t>desc</t>
   </si>
   <si>
     <t>redirect</t>
   </si>
   <si>
+    <t>next</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -84,19 +84,16 @@
     <t>id</t>
   </si>
   <si>
-    <t>路径</t>
-  </si>
-  <si>
     <t>描述</t>
   </si>
   <si>
     <t>中断重定向</t>
   </si>
   <si>
+    <t>下一步引导</t>
+  </si>
+  <si>
     <t>引导1</t>
-  </si>
-  <si>
-    <t>Canvas</t>
   </si>
   <si>
     <t>引导2</t>
@@ -1077,10 +1074,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z14"/>
+  <dimension ref="A1:Y14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1088,11 +1085,11 @@
     <col min="1" max="1" width="9.22321428571429" customWidth="1"/>
     <col min="2" max="2" width="6.75" customWidth="1"/>
     <col min="3" max="3" width="12.3839285714286" customWidth="1"/>
-    <col min="4" max="4" width="15.1785714285714" customWidth="1"/>
-    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="20.0892857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="17" spans="1:26">
+    <row r="1" s="1" customFormat="1" ht="17" spans="1:25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1128,9 +1125,8 @@
       <c r="W1"/>
       <c r="X1"/>
       <c r="Y1"/>
-      <c r="Z1"/>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:26">
+    <row r="2" s="2" customFormat="1" spans="1:25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1142,7 +1138,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>6</v>
@@ -1166,9 +1162,8 @@
       <c r="W2"/>
       <c r="X2"/>
       <c r="Y2"/>
-      <c r="Z2"/>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:26">
+    <row r="3" s="2" customFormat="1" spans="1:25">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -1202,9 +1197,8 @@
       <c r="W3"/>
       <c r="X3"/>
       <c r="Y3"/>
-      <c r="Z3"/>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:26">
+    <row r="4" s="1" customFormat="1" spans="1:25">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -1240,9 +1234,8 @@
       <c r="W4"/>
       <c r="X4"/>
       <c r="Y4"/>
-      <c r="Z4"/>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:6">
       <c r="B5">
         <v>10000</v>
       </c>
@@ -1250,10 +1243,10 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
         <v>15</v>
+      </c>
+      <c r="F5">
+        <v>10001</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -1261,16 +1254,16 @@
         <v>10001</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
-        <v>17</v>
+      <c r="E6">
+        <v>10000</v>
       </c>
       <c r="F6">
-        <v>10000</v>
+        <v>10002</v>
       </c>
     </row>
     <row r="7" spans="2:6">
@@ -1278,16 +1271,16 @@
         <v>10002</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="E7">
+        <v>10000</v>
       </c>
       <c r="F7">
-        <v>10000</v>
+        <v>10003</v>
       </c>
     </row>
     <row r="8" spans="2:6">
@@ -1295,16 +1288,16 @@
         <v>10003</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="E8">
+        <v>10000</v>
       </c>
       <c r="F8">
-        <v>10000</v>
+        <v>10004</v>
       </c>
     </row>
     <row r="9" spans="2:6">
@@ -1312,16 +1305,16 @@
         <v>10004</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="E9">
+        <v>10003</v>
       </c>
       <c r="F9">
-        <v>10003</v>
+        <v>10005</v>
       </c>
     </row>
     <row r="10" spans="2:6">
@@ -1329,16 +1322,16 @@
         <v>10005</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>10003</v>
       </c>
       <c r="F10">
-        <v>10003</v>
+        <v>10006</v>
       </c>
     </row>
     <row r="11" spans="2:6">
@@ -1346,16 +1339,16 @@
         <v>10006</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>10003</v>
       </c>
       <c r="F11">
-        <v>10003</v>
+        <v>10007</v>
       </c>
     </row>
     <row r="12" spans="2:6">
@@ -1363,16 +1356,16 @@
         <v>10007</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>10006</v>
       </c>
       <c r="F12">
-        <v>10006</v>
+        <v>10008</v>
       </c>
     </row>
     <row r="13" spans="2:6">
@@ -1380,30 +1373,27 @@
         <v>10008</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>10006</v>
       </c>
       <c r="F13">
-        <v>10006</v>
+        <v>10009</v>
       </c>
     </row>
-    <row r="14" spans="2:5">
+    <row r="14" spans="2:4">
       <c r="B14">
         <v>10009</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/configs/datas/guide.xlsx
+++ b/configs/datas/guide.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>##var</t>
   </si>
@@ -63,6 +63,9 @@
     <t>next</t>
   </si>
   <si>
+    <t>operation</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -72,6 +75,9 @@
     <t>string</t>
   </si>
   <si>
+    <t>guide.EOperation</t>
+  </si>
+  <si>
     <t>##group</t>
   </si>
   <si>
@@ -93,34 +99,31 @@
     <t>下一步引导</t>
   </si>
   <si>
+    <t>引导操作类型</t>
+  </si>
+  <si>
     <t>引导1</t>
   </si>
   <si>
+    <t>CLICK</t>
+  </si>
+  <si>
     <t>引导2</t>
   </si>
   <si>
+    <t>点击</t>
+  </si>
+  <si>
     <t>引导3</t>
   </si>
   <si>
+    <t>SLIDE</t>
+  </si>
+  <si>
     <t>引导4</t>
   </si>
   <si>
-    <t>引导5</t>
-  </si>
-  <si>
-    <t>引导6</t>
-  </si>
-  <si>
-    <t>引导7</t>
-  </si>
-  <si>
-    <t>引导8</t>
-  </si>
-  <si>
-    <t>引导9</t>
-  </si>
-  <si>
-    <t>引导10</t>
+    <t>CONTACT</t>
   </si>
 </sst>
 </file>
@@ -1074,19 +1077,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y14"/>
+  <dimension ref="A1:Y8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="9.22321428571429" customWidth="1"/>
     <col min="2" max="2" width="6.75" customWidth="1"/>
     <col min="3" max="3" width="12.3839285714286" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
     <col min="6" max="6" width="20.0892857142857" customWidth="1"/>
+    <col min="7" max="7" width="21.5803571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="17" spans="1:25">
@@ -1106,7 +1110,9 @@
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1"/>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="H1"/>
       <c r="I1"/>
       <c r="J1"/>
@@ -1128,22 +1134,24 @@
     </row>
     <row r="2" s="2" customFormat="1" spans="1:25">
       <c r="A2" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="F2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2"/>
+        <v>7</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2"/>
@@ -1165,20 +1173,22 @@
     </row>
     <row r="3" s="2" customFormat="1" spans="1:25">
       <c r="A3" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3"/>
+        <v>11</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3"/>
@@ -1200,22 +1210,24 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:25">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4"/>
+        <v>16</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
@@ -1235,29 +1247,32 @@
       <c r="X4"/>
       <c r="Y4"/>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:7">
       <c r="B5">
         <v>10000</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F5">
         <v>10001</v>
       </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:7">
       <c r="B6">
         <v>10001</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>10000</v>
@@ -1265,16 +1280,19 @@
       <c r="F6">
         <v>10002</v>
       </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:7">
       <c r="B7">
         <v>10002</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>10000</v>
@@ -1282,118 +1300,26 @@
       <c r="F7">
         <v>10003</v>
       </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:7">
       <c r="B8">
         <v>10003</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>10000</v>
       </c>
-      <c r="F8">
-        <v>10004</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9">
-        <v>10004</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9">
-        <v>10003</v>
-      </c>
-      <c r="F9">
-        <v>10005</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10">
-        <v>10005</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>10003</v>
-      </c>
-      <c r="F10">
-        <v>10006</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11">
-        <v>10006</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>10003</v>
-      </c>
-      <c r="F11">
-        <v>10007</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="B12">
-        <v>10007</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>10006</v>
-      </c>
-      <c r="F12">
-        <v>10008</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13">
-        <v>10008</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>10006</v>
-      </c>
-      <c r="F13">
-        <v>10009</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="B14">
-        <v>10009</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>24</v>
+      <c r="F8"/>
+      <c r="G8" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/configs/datas/guide.xlsx
+++ b/configs/datas/guide.xlsx
@@ -7,7 +7,8 @@
     <workbookView windowWidth="28800" windowHeight="11620"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="main" sheetId="1" r:id="rId1"/>
+    <sheet name="scene" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
   <si>
     <t>##var</t>
   </si>
@@ -63,9 +64,15 @@
     <t>next</t>
   </si>
   <si>
+    <t>scene</t>
+  </si>
+  <si>
     <t>operation</t>
   </si>
   <si>
+    <t>target</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -75,9 +82,15 @@
     <t>string</t>
   </si>
   <si>
+    <t>string#ref=guide.TbGuideScene</t>
+  </si>
+  <si>
     <t>guide.EOperation</t>
   </si>
   <si>
+    <t>string?</t>
+  </si>
+  <si>
     <t>##group</t>
   </si>
   <si>
@@ -99,31 +112,76 @@
     <t>下一步引导</t>
   </si>
   <si>
-    <t>引导操作类型</t>
+    <t>引导场景</t>
+  </si>
+  <si>
+    <t>引导操作</t>
+  </si>
+  <si>
+    <t>引导目标（当同时存在多个目标时必填）</t>
   </si>
   <si>
     <t>引导1</t>
   </si>
   <si>
+    <t>scene1</t>
+  </si>
+  <si>
     <t>CLICK</t>
   </si>
   <si>
+    <t>btn1</t>
+  </si>
+  <si>
     <t>引导2</t>
   </si>
   <si>
+    <t>scene2</t>
+  </si>
+  <si>
     <t>点击</t>
   </si>
   <si>
     <t>引导3</t>
   </si>
   <si>
+    <t>scene3</t>
+  </si>
+  <si>
     <t>SLIDE</t>
   </si>
   <si>
     <t>引导4</t>
   </si>
   <si>
+    <t>scene4</t>
+  </si>
+  <si>
     <t>CONTACT</t>
+  </si>
+  <si>
+    <t>btn1|btn2</t>
+  </si>
+  <si>
+    <t>int#ref=guide.TbGuide</t>
+  </si>
+  <si>
+    <t>场景</t>
+  </si>
+  <si>
+    <t>guideID</t>
+  </si>
+  <si>
+    <t>场景1</t>
+  </si>
+  <si>
+    <t>场景2</t>
+  </si>
+  <si>
+    <t>场景3</t>
+  </si>
+  <si>
+    <t>场景4</t>
   </si>
 </sst>
 </file>
@@ -752,12 +810,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1077,10 +1136,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y8"/>
+  <dimension ref="A1:X8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="7"/>
@@ -1090,32 +1149,38 @@
     <col min="3" max="3" width="12.3839285714286" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
     <col min="6" max="6" width="20.0892857142857" customWidth="1"/>
-    <col min="7" max="7" width="21.5803571428571" customWidth="1"/>
+    <col min="7" max="7" width="28.4196428571429" customWidth="1"/>
+    <col min="8" max="8" width="27.3660714285714" customWidth="1"/>
+    <col min="9" max="9" width="35.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="17" spans="1:25">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="3" customFormat="1" ht="17" spans="1:24">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1"/>
-      <c r="I1"/>
-      <c r="J1"/>
+      <c r="H1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="5"/>
       <c r="K1"/>
       <c r="L1"/>
       <c r="M1"/>
@@ -1130,31 +1195,34 @@
       <c r="V1"/>
       <c r="W1"/>
       <c r="X1"/>
-      <c r="Y1"/>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:25">
-      <c r="A2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
+    <row r="2" s="4" customFormat="1" spans="1:24">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="5"/>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
@@ -1169,28 +1237,25 @@
       <c r="V2"/>
       <c r="W2"/>
       <c r="X2"/>
-      <c r="Y2"/>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:25">
-      <c r="A3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3"/>
-      <c r="I3"/>
+    <row r="3" s="4" customFormat="1" spans="1:20">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
@@ -1202,34 +1267,33 @@
       <c r="R3"/>
       <c r="S3"/>
       <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-      <c r="X3"/>
-      <c r="Y3"/>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:25">
-      <c r="A4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="3" t="s">
+    <row r="4" s="3" customFormat="1" spans="1:20">
+      <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H4"/>
-      <c r="I4"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
@@ -1241,38 +1305,39 @@
       <c r="R4"/>
       <c r="S4"/>
       <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:9">
       <c r="B5">
         <v>10000</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F5">
         <v>10001</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:8">
       <c r="B6">
         <v>10001</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>10000</v>
@@ -1281,18 +1346,21 @@
         <v>10002</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:9">
       <c r="B7">
         <v>10002</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E7">
         <v>10000</v>
@@ -1301,25 +1369,36 @@
         <v>10003</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:9">
       <c r="B8">
         <v>10003</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E8">
         <v>10000</v>
       </c>
-      <c r="F8"/>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>35</v>
+      </c>
+      <c r="H8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1327,4 +1406,138 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="4"/>
+  <cols>
+    <col min="4" max="4" width="19.3392857142857" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5">
+        <v>10000</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6">
+        <v>10001</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7">
+        <v>10002</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8">
+        <v>10003</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>